--- a/Managment/Requirments/ACS_SIQ.xlsx
+++ b/Managment/Requirments/ACS_SIQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air-Conditioner-Screen-Team-4\Managment\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>Yasmeen Yahia</t>
   </si>
@@ -331,6 +332,9 @@
   <si>
     <t>SIQ_ID</t>
   </si>
+  <si>
+    <t>Unsatisfied</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,6 +368,11 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -400,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,6 +441,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30069,7 +30079,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
-            <xm:f>[siq_crs_rtm.xlsx]Sheet2!#REF!</xm:f>
+            <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D25</xm:sqref>
         </x14:dataValidation>
@@ -30077,4 +30087,39 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>